--- a/biology/Botanique/Xyris_jupicai/Xyris_jupicai.xlsx
+++ b/biology/Botanique/Xyris_jupicai/Xyris_jupicai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xyris jupicai est une espèce de la famille des Xyridaceae. Son nom commun est Richard's yelloweyed grass en anglais, (Herbe aux yeux jaunes de Richard en français) est une espèce de plante à fleurs du Nouveau Monde. Son aire de répartition naturelle s'étend du sud du New Jersey à l'Amérique tropicale et subtropicale. Il pousse  principalement dans le biome subtropical[1] et est répandu en Amérique du Nord, en Amérique du Sud, en Méso-Amérique et aux Antilles[2],[3],[4],[5],[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xyris jupicai est une espèce de la famille des Xyridaceae. Son nom commun est Richard's yelloweyed grass en anglais, (Herbe aux yeux jaunes de Richard en français) est une espèce de plante à fleurs du Nouveau Monde. Son aire de répartition naturelle s'étend du sud du New Jersey à l'Amérique tropicale et subtropicale. Il pousse  principalement dans le biome subtropical et est répandu en Amérique du Nord, en Amérique du Sud, en Méso-Amérique et aux Antilles.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xyris jupicai est une plante herbacée annuelle ou bisannuelle atteignant 100  cm de hauteur avec des feuilles ressemblant à de l'herbe jusqu'à 60  cm  de long et des fleurs jaunes[3].
-Il est utilisé comme médicament[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xyris jupicai est une plante herbacée annuelle ou bisannuelle atteignant 100  cm de hauteur avec des feuilles ressemblant à de l'herbe jusqu'à 60  cm  de long et des fleurs jaunes.
+Il est utilisé comme médicament.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Xyris jupicai Rich.[8].
-Xyris jupicai a pour synonymes[8] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Xyris jupicai Rich..
+Xyris jupicai a pour synonymes :
 Xyris acuminata Miq.
 Xyris acuminata Miq. ex Steud.
 Xyris anceps Pers.
